--- a/Code/Results/Cases/Case_2_205/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_205/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9776186241848279</v>
+        <v>0.5058561382584799</v>
       </c>
       <c r="C2">
-        <v>0.2508568794154371</v>
+        <v>0.143701208575493</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2046971499298635</v>
+        <v>0.2336753527718756</v>
       </c>
       <c r="F2">
-        <v>2.07129258206993</v>
+        <v>2.895405934404607</v>
       </c>
       <c r="G2">
-        <v>0.0008274500181821853</v>
+        <v>0.002523578501680898</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.7153304456032643</v>
+        <v>1.18932665027797</v>
       </c>
       <c r="J2">
-        <v>0.05495992762777924</v>
+        <v>0.1103267142276909</v>
       </c>
       <c r="K2">
-        <v>1.201272129871342</v>
+        <v>0.6388100547983697</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.5602346295803855</v>
+        <v>0.4173734276955585</v>
       </c>
       <c r="N2">
-        <v>1.337011708577315</v>
+        <v>2.500046538005279</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8486300209126227</v>
+        <v>0.4726270907902119</v>
       </c>
       <c r="C3">
-        <v>0.2188090227560764</v>
+        <v>0.1358393148541381</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1804188764591572</v>
+        <v>0.2289736659987511</v>
       </c>
       <c r="F3">
-        <v>1.91746994067806</v>
+        <v>2.873027262623481</v>
       </c>
       <c r="G3">
-        <v>0.0008332467911449234</v>
+        <v>0.002527187915113905</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.6989357374220688</v>
+        <v>1.19083112469368</v>
       </c>
       <c r="J3">
-        <v>0.05657663316130801</v>
+        <v>0.1110801525659504</v>
       </c>
       <c r="K3">
-        <v>1.043734611659289</v>
+        <v>0.5987489056767288</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.4893496717772905</v>
+        <v>0.4011072879575153</v>
       </c>
       <c r="N3">
-        <v>1.380603158856275</v>
+        <v>2.518167781686913</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7703034252183443</v>
+        <v>0.4524925900373375</v>
       </c>
       <c r="C4">
-        <v>0.1994886859320104</v>
+        <v>0.1311008126469062</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1657030538118391</v>
+        <v>0.2261997684549897</v>
       </c>
       <c r="F4">
-        <v>1.826345020244858</v>
+        <v>2.860740913906128</v>
       </c>
       <c r="G4">
-        <v>0.0008369116152637573</v>
+        <v>0.002529520943273767</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.6901237091802486</v>
+        <v>1.192282533542048</v>
       </c>
       <c r="J4">
-        <v>0.05763836083025176</v>
+        <v>0.111574886244199</v>
       </c>
       <c r="K4">
-        <v>0.9482358198083887</v>
+        <v>0.5745053756218113</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.4463819849877098</v>
+        <v>0.3913505902154881</v>
       </c>
       <c r="N4">
-        <v>1.409056741308341</v>
+        <v>2.530020781158136</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7385767511206609</v>
+        <v>0.4443551177393203</v>
       </c>
       <c r="C5">
-        <v>0.1916951233102395</v>
+        <v>0.1291920457450857</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1597495694951547</v>
+        <v>0.2250978316777363</v>
       </c>
       <c r="F5">
-        <v>1.789986322527042</v>
+        <v>2.856099602391922</v>
       </c>
       <c r="G5">
-        <v>0.0008384323682295645</v>
+        <v>0.00253050114300136</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.6868304944393415</v>
+        <v>1.193006556400491</v>
       </c>
       <c r="J5">
-        <v>0.0580877935842512</v>
+        <v>0.1117845683227205</v>
       </c>
       <c r="K5">
-        <v>0.9095911782140718</v>
+        <v>0.5647149183314752</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4289965627965131</v>
+        <v>0.3874327190115352</v>
       </c>
       <c r="N5">
-        <v>1.421061467543211</v>
+        <v>2.535033506648929</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7333193914209062</v>
+        <v>0.443007974861132</v>
       </c>
       <c r="C6">
-        <v>0.1904055330610248</v>
+        <v>0.1288764350276494</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1587634824697446</v>
+        <v>0.2249165755059366</v>
       </c>
       <c r="F6">
-        <v>1.783994138943697</v>
+        <v>2.855350984106295</v>
       </c>
       <c r="G6">
-        <v>0.0008386865587249881</v>
+        <v>0.00253066568721953</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.6863011473810019</v>
+        <v>1.193134782760268</v>
       </c>
       <c r="J6">
-        <v>0.05816341777959977</v>
+        <v>0.1118198734533671</v>
       </c>
       <c r="K6">
-        <v>0.9031896402532595</v>
+        <v>0.5630945921380714</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4261167961378973</v>
+        <v>0.3867856672922017</v>
       </c>
       <c r="N6">
-        <v>1.423079169772706</v>
+        <v>2.535876886106294</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7698748055934175</v>
+        <v>0.4523825718771661</v>
       </c>
       <c r="C7">
-        <v>0.1993832697550602</v>
+        <v>0.1310749805489593</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.165622593624569</v>
+        <v>0.2261847921007245</v>
       </c>
       <c r="F7">
-        <v>1.825851611020525</v>
+        <v>2.860676840040469</v>
       </c>
       <c r="G7">
-        <v>0.0008369320131921545</v>
+        <v>0.00252953404312334</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.6900781126458355</v>
+        <v>1.192291761394884</v>
       </c>
       <c r="J7">
-        <v>0.05764435489337849</v>
+        <v>0.1115776814017035</v>
       </c>
       <c r="K7">
-        <v>0.9477135913996335</v>
+        <v>0.5743729779293858</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.4461470358029729</v>
+        <v>0.3912975172988737</v>
       </c>
       <c r="N7">
-        <v>1.409217001460739</v>
+        <v>2.530087645669482</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9329450533053603</v>
+        <v>0.4943430962980813</v>
       </c>
       <c r="C8">
-        <v>0.2397262888173515</v>
+        <v>0.140971947324303</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1962833842257581</v>
+        <v>0.2320307917482722</v>
       </c>
       <c r="F8">
-        <v>2.017527454250057</v>
+        <v>2.887387799317139</v>
       </c>
       <c r="G8">
-        <v>0.0008294273024881393</v>
+        <v>0.002524798834723668</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.7094062014149074</v>
+        <v>1.189735802427371</v>
       </c>
       <c r="J8">
-        <v>0.05550266119631431</v>
+        <v>0.1105798317982103</v>
       </c>
       <c r="K8">
-        <v>1.146674618220658</v>
+        <v>0.6249233962926439</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.5356684148878585</v>
+        <v>0.4117169769957556</v>
       </c>
       <c r="N8">
-        <v>1.35168238864226</v>
+        <v>2.506143873016676</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.261000218090516</v>
+        <v>0.578759275947192</v>
       </c>
       <c r="C9">
-        <v>0.3221733523440378</v>
+        <v>0.1610896665013399</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2581576129375094</v>
+        <v>0.2443899461519479</v>
       </c>
       <c r="F9">
-        <v>2.422704443154899</v>
+        <v>2.951322595395297</v>
       </c>
       <c r="G9">
-        <v>0.0008155115403625068</v>
+        <v>0.002516435879004613</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.7581224475845119</v>
+        <v>1.188916893592044</v>
       </c>
       <c r="J9">
-        <v>0.0518799271208632</v>
+        <v>0.1088780167127865</v>
       </c>
       <c r="K9">
-        <v>1.548430649970101</v>
+        <v>0.7268726128205856</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.7163937346181797</v>
+        <v>0.4535918977838449</v>
       </c>
       <c r="N9">
-        <v>1.252973978797527</v>
+        <v>2.464960826764752</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.509122398380043</v>
+        <v>0.6420909602639995</v>
       </c>
       <c r="C10">
-        <v>0.3855444787722888</v>
+        <v>0.1763125216735659</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.305035307656091</v>
+        <v>0.2540157637220943</v>
       </c>
       <c r="F10">
-        <v>2.742706482299383</v>
+        <v>3.005371039136747</v>
       </c>
       <c r="G10">
-        <v>0.0008057204708075657</v>
+        <v>0.002510848199059515</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.8018105223337244</v>
+        <v>1.190882398633647</v>
       </c>
       <c r="J10">
-        <v>0.04961444412916904</v>
+        <v>0.1077832711081079</v>
       </c>
       <c r="K10">
-        <v>1.853467406846278</v>
+        <v>0.8035160552725245</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.8534887969821696</v>
+        <v>0.485480227536442</v>
       </c>
       <c r="N10">
-        <v>1.190147965428793</v>
+        <v>2.438229772628226</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.62404786548791</v>
+        <v>0.671189850534688</v>
       </c>
       <c r="C11">
-        <v>0.4151709172828077</v>
+        <v>0.1833360445405106</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.3267557896286917</v>
+        <v>0.2585133143525979</v>
       </c>
       <c r="F11">
-        <v>2.894227639918398</v>
+        <v>3.031502957390757</v>
       </c>
       <c r="G11">
-        <v>0.0008013467578912335</v>
+        <v>0.002508425804472009</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.8237216258744056</v>
+        <v>1.192336467083869</v>
       </c>
       <c r="J11">
-        <v>0.04868092542857383</v>
+        <v>0.1073190603044836</v>
       </c>
       <c r="K11">
-        <v>1.995070061118099</v>
+        <v>0.838766619895523</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.9170802699281424</v>
+        <v>0.5002323650431819</v>
       </c>
       <c r="N11">
-        <v>1.16394205039073</v>
+        <v>2.426836621969628</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.667908840305358</v>
+        <v>0.6822504879393421</v>
       </c>
       <c r="C12">
-        <v>0.4265221142010773</v>
+        <v>0.1860099871155114</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.3350455401992321</v>
+        <v>0.260233468956045</v>
       </c>
       <c r="F12">
-        <v>2.952561554823689</v>
+        <v>3.041621039258843</v>
       </c>
       <c r="G12">
-        <v>0.0007997008691081265</v>
+        <v>0.002507525589985213</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.8323415257029367</v>
+        <v>1.192967783649458</v>
       </c>
       <c r="J12">
-        <v>0.04834243178364872</v>
+        <v>0.1071481396039147</v>
       </c>
       <c r="K12">
-        <v>2.049163202325246</v>
+        <v>0.8521707169772981</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.9413632500261357</v>
+        <v>0.5058540275201651</v>
       </c>
       <c r="N12">
-        <v>1.154385278385234</v>
+        <v>2.422632803564724</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.658446640803533</v>
+        <v>0.6798665357569575</v>
       </c>
       <c r="C13">
-        <v>0.4240712488724512</v>
+        <v>0.1854334685187382</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.33325718568355</v>
+        <v>0.2598622461383258</v>
       </c>
       <c r="F13">
-        <v>2.939954073319655</v>
+        <v>3.039432028731909</v>
       </c>
       <c r="G13">
-        <v>0.0008000549012219683</v>
+        <v>0.002507718708494719</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.8304702222631164</v>
+        <v>1.192828226745</v>
       </c>
       <c r="J13">
-        <v>0.04841464691539166</v>
+        <v>0.1071847339227947</v>
       </c>
       <c r="K13">
-        <v>2.037491247126752</v>
+        <v>0.8492814360241425</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.9361240397474262</v>
+        <v>0.5046417301489896</v>
       </c>
       <c r="N13">
-        <v>1.156426751767512</v>
+        <v>2.42353325184493</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.627649217319998</v>
+        <v>0.6720989839261051</v>
       </c>
       <c r="C14">
-        <v>0.4161020289464261</v>
+        <v>0.1835557444244102</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.3274364489592898</v>
+        <v>0.2586544914415256</v>
       </c>
       <c r="F14">
-        <v>2.899007033468195</v>
+        <v>3.032330917150205</v>
       </c>
       <c r="G14">
-        <v>0.0008012111496826444</v>
+        <v>0.002508351401265796</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.824424143505297</v>
+        <v>1.192386787686942</v>
       </c>
       <c r="J14">
-        <v>0.04865277010574864</v>
+        <v>0.1073049010000204</v>
       </c>
       <c r="K14">
-        <v>1.999510508500549</v>
+        <v>0.8398682706776412</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.9190738339924494</v>
+        <v>0.5006941542938108</v>
       </c>
       <c r="N14">
-        <v>1.163148301941504</v>
+        <v>2.426488554940093</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.608830778370844</v>
+        <v>0.6673465401186718</v>
       </c>
       <c r="C15">
-        <v>0.4112384311298172</v>
+        <v>0.1824074481401965</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.3238797460104337</v>
+        <v>0.2579169233699403</v>
       </c>
       <c r="F15">
-        <v>2.874053454563636</v>
+        <v>3.02801026587963</v>
       </c>
       <c r="G15">
-        <v>0.0008019206944058679</v>
+        <v>0.002508741167606731</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.8207636940658105</v>
+        <v>1.192126907202407</v>
       </c>
       <c r="J15">
-        <v>0.04880061529142665</v>
+        <v>0.1073791406716396</v>
       </c>
       <c r="K15">
-        <v>1.976309558207504</v>
+        <v>0.8341096623851172</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.908657244675112</v>
+        <v>0.4982807528220334</v>
       </c>
       <c r="N15">
-        <v>1.167314018490401</v>
+        <v>2.428313163512001</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.501656894402004</v>
+        <v>0.6401950913150642</v>
       </c>
       <c r="C16">
-        <v>0.3836258444183329</v>
+        <v>0.1758555110172324</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.3036244328408202</v>
+        <v>0.2537242235415036</v>
       </c>
       <c r="F16">
-        <v>2.732932328626049</v>
+        <v>3.003694373655492</v>
       </c>
       <c r="G16">
-        <v>0.0008060078184312646</v>
+        <v>0.002511008904902912</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.8004220468678156</v>
+        <v>1.190798654139442</v>
       </c>
       <c r="J16">
-        <v>0.04967749232667273</v>
+        <v>0.1078142889367317</v>
       </c>
       <c r="K16">
-        <v>1.844275725885353</v>
+        <v>0.8012201051492696</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.8493597808654201</v>
+        <v>0.4845210883304247</v>
       </c>
       <c r="N16">
-        <v>1.191910473303068</v>
+        <v>2.438989794633791</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.436466429363435</v>
+        <v>0.6236125466846829</v>
       </c>
       <c r="C17">
-        <v>0.3669028386968591</v>
+        <v>0.1718614356771582</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.2913050921232596</v>
+        <v>0.2511825146559445</v>
       </c>
       <c r="F17">
-        <v>2.647951677389443</v>
+        <v>2.989173301735917</v>
       </c>
       <c r="G17">
-        <v>0.0008085348782239733</v>
+        <v>0.002512430625944417</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.7884851155759378</v>
+        <v>1.190127352404097</v>
       </c>
       <c r="J17">
-        <v>0.05024100200421877</v>
+        <v>0.1080898982599994</v>
       </c>
       <c r="K17">
-        <v>1.764047483014906</v>
+        <v>0.7811421244305166</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.8133144651896345</v>
+        <v>0.4761429634308101</v>
       </c>
       <c r="N17">
-        <v>1.207624965144248</v>
+        <v>2.44573615984816</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.399160880630916</v>
+        <v>0.6141019086948347</v>
       </c>
       <c r="C18">
-        <v>0.3573582299532916</v>
+        <v>0.1695734202177164</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.2842560600154727</v>
+        <v>0.2497317676854749</v>
       </c>
       <c r="F18">
-        <v>2.599626598500421</v>
+        <v>2.980966569245425</v>
       </c>
       <c r="G18">
-        <v>0.0008099960120454126</v>
+        <v>0.00251325961228534</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.781809117398538</v>
+        <v>1.189793932108913</v>
       </c>
       <c r="J18">
-        <v>0.05057418444067174</v>
+        <v>0.1082516019597808</v>
       </c>
       <c r="K18">
-        <v>1.718165512584335</v>
+        <v>0.7696300401599672</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.7926958798292603</v>
+        <v>0.4713472413089974</v>
       </c>
       <c r="N18">
-        <v>1.216885305543045</v>
+        <v>2.449688664295486</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.386561215775089</v>
+        <v>0.6108864434238228</v>
       </c>
       <c r="C19">
-        <v>0.3541387988830138</v>
+        <v>0.1688003263919029</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.2818754609661056</v>
+        <v>0.2492424905864823</v>
       </c>
       <c r="F19">
-        <v>2.583356722869439</v>
+        <v>2.978212874260194</v>
       </c>
       <c r="G19">
-        <v>0.0008104920732293941</v>
+        <v>0.002513542227890755</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.7795804803319584</v>
+        <v>1.189690086892597</v>
       </c>
       <c r="J19">
-        <v>0.0506885212011472</v>
+        <v>0.108306898122672</v>
       </c>
       <c r="K19">
-        <v>1.702674050777006</v>
+        <v>0.7657384673790659</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.7857335632961693</v>
+        <v>0.469727469601672</v>
       </c>
       <c r="N19">
-        <v>1.220058053359153</v>
+        <v>2.451039303190186</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.443386053497335</v>
+        <v>0.6253749717302242</v>
       </c>
       <c r="C20">
-        <v>0.3686752492878611</v>
+        <v>0.1722856514867033</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.2926126517410736</v>
+        <v>0.2514519274582909</v>
       </c>
       <c r="F20">
-        <v>2.65694002596868</v>
+        <v>2.990704043549215</v>
       </c>
       <c r="G20">
-        <v>0.0008082650864654022</v>
+        <v>0.002512278117562201</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.7897359717789101</v>
+        <v>1.19019335866939</v>
       </c>
       <c r="J20">
-        <v>0.05018006981040202</v>
+        <v>0.1080602299613354</v>
       </c>
       <c r="K20">
-        <v>1.772560240629957</v>
+        <v>0.7832757084256627</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.8171396002465556</v>
+        <v>0.4770324329774951</v>
       </c>
       <c r="N20">
-        <v>1.205929000787933</v>
+        <v>2.445010526351858</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.636685519093504</v>
+        <v>0.6743793756496359</v>
       </c>
       <c r="C21">
-        <v>0.4184390430294798</v>
+        <v>0.1841068888615496</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.329144319415164</v>
+        <v>0.259008776418419</v>
       </c>
       <c r="F21">
-        <v>2.911007373071982</v>
+        <v>3.034410644804808</v>
       </c>
       <c r="G21">
-        <v>0.0008008712609327117</v>
+        <v>0.00250816510094823</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.826191015825998</v>
+        <v>1.192514257685282</v>
       </c>
       <c r="J21">
-        <v>0.04858241124553864</v>
+        <v>0.1072694729077046</v>
       </c>
       <c r="K21">
-        <v>2.010653049098039</v>
+        <v>0.8426316391769149</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.9240761839661715</v>
+        <v>0.5018526938483916</v>
       </c>
       <c r="N21">
-        <v>1.161163848039905</v>
+        <v>2.425617509389781</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.765031259006264</v>
+        <v>0.7066485769352937</v>
       </c>
       <c r="C22">
-        <v>0.4517431963862464</v>
+        <v>0.1919160789837804</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.353401014132892</v>
+        <v>0.2640468577629846</v>
       </c>
       <c r="F22">
-        <v>3.082682069961606</v>
+        <v>3.064272440401425</v>
       </c>
       <c r="G22">
-        <v>0.0007960986051267766</v>
+        <v>0.002505576602344369</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.8519130414224776</v>
+        <v>1.19450151810161</v>
       </c>
       <c r="J22">
-        <v>0.0476263092489706</v>
+        <v>0.1067810324432816</v>
       </c>
       <c r="K22">
-        <v>2.169041314076338</v>
+        <v>0.8817475609874066</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.9951583082334849</v>
+        <v>0.5182801958927143</v>
       </c>
       <c r="N22">
-        <v>1.134059184612084</v>
+        <v>2.413587362196424</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.696330137003201</v>
+        <v>0.6894037662612504</v>
       </c>
       <c r="C23">
-        <v>0.4338904606251788</v>
+        <v>0.1877405051631342</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.3404171153614683</v>
+        <v>0.2613488717560628</v>
       </c>
       <c r="F23">
-        <v>2.990505381987788</v>
+        <v>3.048215854169229</v>
       </c>
       <c r="G23">
-        <v>0.0007986408320870207</v>
+        <v>0.002506949048063447</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.8380005857992003</v>
+        <v>1.193397778937829</v>
       </c>
       <c r="J23">
-        <v>0.04812816337059012</v>
+        <v>0.107039124793916</v>
       </c>
       <c r="K23">
-        <v>2.084229619250209</v>
+        <v>0.8608410332613232</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.9571020501011276</v>
+        <v>0.5094936845521261</v>
       </c>
       <c r="N23">
-        <v>1.148319447436577</v>
+        <v>2.419949044757956</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.440257154995123</v>
+        <v>0.6245781080722566</v>
       </c>
       <c r="C24">
-        <v>0.3678737267512986</v>
+        <v>0.1720938378878714</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.2920214002074388</v>
+        <v>0.2513300931742677</v>
       </c>
       <c r="F24">
-        <v>2.652874745765132</v>
+        <v>2.99001155403127</v>
       </c>
       <c r="G24">
-        <v>0.00080838703342988</v>
+        <v>0.00251234703038974</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.7891698803618397</v>
+        <v>1.19016335364271</v>
       </c>
       <c r="J24">
-        <v>0.05020758863623875</v>
+        <v>0.1080736328684253</v>
       </c>
       <c r="K24">
-        <v>1.768710872833879</v>
+        <v>0.7823110185043163</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.8154099336000868</v>
+        <v>0.4766302384649919</v>
       </c>
       <c r="N24">
-        <v>1.206695044633946</v>
+        <v>2.445338354964456</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.171165072003049</v>
+        <v>0.5556930632583317</v>
       </c>
       <c r="C25">
-        <v>0.2994375062325503</v>
+        <v>0.1555703080309172</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.241197130617401</v>
+        <v>0.2409506533392047</v>
       </c>
       <c r="F25">
-        <v>2.309519377581708</v>
+        <v>2.932786299594667</v>
       </c>
       <c r="G25">
-        <v>0.0008191958421999427</v>
+        <v>0.002518600109588598</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.7436579293084122</v>
+        <v>1.188688399487575</v>
       </c>
       <c r="J25">
-        <v>0.05279387238986466</v>
+        <v>0.1093110928707617</v>
       </c>
       <c r="K25">
-        <v>1.438229466095606</v>
+        <v>0.6989884673415361</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.6668348054980484</v>
+        <v>0.4420668625568638</v>
       </c>
       <c r="N25">
-        <v>1.278059480727002</v>
+        <v>2.475483316348274</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_205/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_205/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5058561382584799</v>
+        <v>0.9776186241849132</v>
       </c>
       <c r="C2">
-        <v>0.143701208575493</v>
+        <v>0.2508568794155224</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2336753527718756</v>
+        <v>0.2046971499298778</v>
       </c>
       <c r="F2">
-        <v>2.895405934404607</v>
+        <v>2.071292582069944</v>
       </c>
       <c r="G2">
-        <v>0.002523578501680898</v>
+        <v>0.0008274500182091824</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.18932665027797</v>
+        <v>0.7153304456032714</v>
       </c>
       <c r="J2">
-        <v>0.1103267142276909</v>
+        <v>0.05495992762788227</v>
       </c>
       <c r="K2">
-        <v>0.6388100547983697</v>
+        <v>1.201272129871285</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.4173734276955585</v>
+        <v>0.5602346295804068</v>
       </c>
       <c r="N2">
-        <v>2.500046538005279</v>
+        <v>1.337011708577315</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.4726270907902119</v>
+        <v>0.8486300209125091</v>
       </c>
       <c r="C3">
-        <v>0.1358393148541381</v>
+        <v>0.2188090227559485</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2289736659987511</v>
+        <v>0.1804188764591572</v>
       </c>
       <c r="F3">
-        <v>2.873027262623481</v>
+        <v>1.91746994067806</v>
       </c>
       <c r="G3">
-        <v>0.002527187915113905</v>
+        <v>0.0008332467911443644</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.19083112469368</v>
+        <v>0.698935737422083</v>
       </c>
       <c r="J3">
-        <v>0.1110801525659504</v>
+        <v>0.05657663316145545</v>
       </c>
       <c r="K3">
-        <v>0.5987489056767288</v>
+        <v>1.043734611659232</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.4011072879575153</v>
+        <v>0.4893496717773047</v>
       </c>
       <c r="N3">
-        <v>2.518167781686913</v>
+        <v>1.380603158856275</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4524925900373375</v>
+        <v>0.7703034252185148</v>
       </c>
       <c r="C4">
-        <v>0.1311008126469062</v>
+        <v>0.1994886859324936</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2261997684549897</v>
+        <v>0.165703053811761</v>
       </c>
       <c r="F4">
-        <v>2.860740913906128</v>
+        <v>1.826345020244858</v>
       </c>
       <c r="G4">
-        <v>0.002529520943273767</v>
+        <v>0.0008369116152641925</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.192282533542048</v>
+        <v>0.6901237091802273</v>
       </c>
       <c r="J4">
-        <v>0.111574886244199</v>
+        <v>0.05763836083023577</v>
       </c>
       <c r="K4">
-        <v>0.5745053756218113</v>
+        <v>0.9482358198084455</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3913505902154881</v>
+        <v>0.4463819849876813</v>
       </c>
       <c r="N4">
-        <v>2.530020781158136</v>
+        <v>1.409056741308298</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4443551177393203</v>
+        <v>0.7385767511206041</v>
       </c>
       <c r="C5">
-        <v>0.1291920457450857</v>
+        <v>0.191695123310339</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.2250978316777363</v>
+        <v>0.1597495694951263</v>
       </c>
       <c r="F5">
-        <v>2.856099602391922</v>
+        <v>1.789986322527071</v>
       </c>
       <c r="G5">
-        <v>0.00253050114300136</v>
+        <v>0.0008384323681956744</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.193006556400491</v>
+        <v>0.6868304944393699</v>
       </c>
       <c r="J5">
-        <v>0.1117845683227205</v>
+        <v>0.05808779358428851</v>
       </c>
       <c r="K5">
-        <v>0.5647149183314752</v>
+        <v>0.909591178214157</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3874327190115352</v>
+        <v>0.4289965627965131</v>
       </c>
       <c r="N5">
-        <v>2.535033506648929</v>
+        <v>1.421061467543254</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.443007974861132</v>
+        <v>0.7333193914208493</v>
       </c>
       <c r="C6">
-        <v>0.1288764350276494</v>
+        <v>0.1904055330610106</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2249165755059366</v>
+        <v>0.1587634824697588</v>
       </c>
       <c r="F6">
-        <v>2.855350984106295</v>
+        <v>1.783994138943712</v>
       </c>
       <c r="G6">
-        <v>0.00253066568721953</v>
+        <v>0.000838686558787157</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.193134782760268</v>
+        <v>0.6863011473810161</v>
       </c>
       <c r="J6">
-        <v>0.1118198734533671</v>
+        <v>0.05816341777960865</v>
       </c>
       <c r="K6">
-        <v>0.5630945921380714</v>
+        <v>0.903189640253288</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3867856672922017</v>
+        <v>0.4261167961379044</v>
       </c>
       <c r="N6">
-        <v>2.535876886106294</v>
+        <v>1.423079169772784</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4523825718771661</v>
+        <v>0.7698748055935596</v>
       </c>
       <c r="C7">
-        <v>0.1310749805489593</v>
+        <v>0.1993832697549465</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.2261847921007245</v>
+        <v>0.1656225936245619</v>
       </c>
       <c r="F7">
-        <v>2.860676840040469</v>
+        <v>1.825851611020539</v>
       </c>
       <c r="G7">
-        <v>0.00252953404312334</v>
+        <v>0.0008369320131611544</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.192291761394884</v>
+        <v>0.6900781126458213</v>
       </c>
       <c r="J7">
-        <v>0.1115776814017035</v>
+        <v>0.05764435489335007</v>
       </c>
       <c r="K7">
-        <v>0.5743729779293858</v>
+        <v>0.9477135913996619</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3912975172988737</v>
+        <v>0.4461470358029729</v>
       </c>
       <c r="N7">
-        <v>2.530087645669482</v>
+        <v>1.409217001460647</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.4943430962980813</v>
+        <v>0.9329450533053318</v>
       </c>
       <c r="C8">
-        <v>0.140971947324303</v>
+        <v>0.2397262888173515</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.2320307917482722</v>
+        <v>0.196283384225751</v>
       </c>
       <c r="F8">
-        <v>2.887387799317139</v>
+        <v>2.017527454250086</v>
       </c>
       <c r="G8">
-        <v>0.002524798834723668</v>
+        <v>0.0008294273024513166</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.189735802427371</v>
+        <v>0.7094062014149216</v>
       </c>
       <c r="J8">
-        <v>0.1105798317982103</v>
+        <v>0.05550266119629299</v>
       </c>
       <c r="K8">
-        <v>0.6249233962926439</v>
+        <v>1.146674618220715</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.4117169769957556</v>
+        <v>0.5356684148878585</v>
       </c>
       <c r="N8">
-        <v>2.506143873016676</v>
+        <v>1.351682388642317</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.578759275947192</v>
+        <v>1.261000218090572</v>
       </c>
       <c r="C9">
-        <v>0.1610896665013399</v>
+        <v>0.3221733523442083</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2443899461519479</v>
+        <v>0.2581576129374739</v>
       </c>
       <c r="F9">
-        <v>2.951322595395297</v>
+        <v>2.422704443154885</v>
       </c>
       <c r="G9">
-        <v>0.002516435879004613</v>
+        <v>0.0008155115403601631</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.188916893592044</v>
+        <v>0.7581224475845119</v>
       </c>
       <c r="J9">
-        <v>0.1088780167127865</v>
+        <v>0.05187992712078504</v>
       </c>
       <c r="K9">
-        <v>0.7268726128205856</v>
+        <v>1.548430649970101</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.4535918977838449</v>
+        <v>0.7163937346181797</v>
       </c>
       <c r="N9">
-        <v>2.464960826764752</v>
+        <v>1.25297397879757</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.6420909602639995</v>
+        <v>1.509122398380072</v>
       </c>
       <c r="C10">
-        <v>0.1763125216735659</v>
+        <v>0.3855444787722888</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.2540157637220943</v>
+        <v>0.3050353076560839</v>
       </c>
       <c r="F10">
-        <v>3.005371039136747</v>
+        <v>2.742706482299383</v>
       </c>
       <c r="G10">
-        <v>0.002510848199059515</v>
+        <v>0.000805720470890451</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.190882398633647</v>
+        <v>0.8018105223337244</v>
       </c>
       <c r="J10">
-        <v>0.1077832711081079</v>
+        <v>0.04961444412926852</v>
       </c>
       <c r="K10">
-        <v>0.8035160552725245</v>
+        <v>1.853467406846335</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.485480227536442</v>
+        <v>0.8534887969821625</v>
       </c>
       <c r="N10">
-        <v>2.438229772628226</v>
+        <v>1.190147965428764</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.671189850534688</v>
+        <v>1.624047865487967</v>
       </c>
       <c r="C11">
-        <v>0.1833360445405106</v>
+        <v>0.4151709172828077</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.2585133143525979</v>
+        <v>0.3267557896287272</v>
       </c>
       <c r="F11">
-        <v>3.031502957390757</v>
+        <v>2.894227639918398</v>
       </c>
       <c r="G11">
-        <v>0.002508425804472009</v>
+        <v>0.0008013467578902343</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.192336467083869</v>
+        <v>0.8237216258744056</v>
       </c>
       <c r="J11">
-        <v>0.1073190603044836</v>
+        <v>0.04868092542861824</v>
       </c>
       <c r="K11">
-        <v>0.838766619895523</v>
+        <v>1.995070061118128</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.5002323650431819</v>
+        <v>0.9170802699281566</v>
       </c>
       <c r="N11">
-        <v>2.426836621969628</v>
+        <v>1.16394205039073</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.6822504879393421</v>
+        <v>1.66790884030533</v>
       </c>
       <c r="C12">
-        <v>0.1860099871155114</v>
+        <v>0.4265221142010205</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.260233468956045</v>
+        <v>0.3350455401992249</v>
       </c>
       <c r="F12">
-        <v>3.041621039258843</v>
+        <v>2.952561554823689</v>
       </c>
       <c r="G12">
-        <v>0.002507525589985213</v>
+        <v>0.0007997008691080743</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.192967783649458</v>
+        <v>0.8323415257029296</v>
       </c>
       <c r="J12">
-        <v>0.1071481396039147</v>
+        <v>0.04834243178359188</v>
       </c>
       <c r="K12">
-        <v>0.8521707169772981</v>
+        <v>2.049163202325218</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.5058540275201651</v>
+        <v>0.9413632500261357</v>
       </c>
       <c r="N12">
-        <v>2.422632803564724</v>
+        <v>1.154385278385178</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.6798665357569575</v>
+        <v>1.658446640803675</v>
       </c>
       <c r="C13">
-        <v>0.1854334685187382</v>
+        <v>0.4240712488725649</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.2598622461383258</v>
+        <v>0.3332571856835216</v>
       </c>
       <c r="F13">
-        <v>3.039432028731909</v>
+        <v>2.939954073319655</v>
       </c>
       <c r="G13">
-        <v>0.002507718708494719</v>
+        <v>0.0008000549011475183</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.192828226745</v>
+        <v>0.8304702222631235</v>
       </c>
       <c r="J13">
-        <v>0.1071847339227947</v>
+        <v>0.04841464691539876</v>
       </c>
       <c r="K13">
-        <v>0.8492814360241425</v>
+        <v>2.037491247126695</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.5046417301489896</v>
+        <v>0.9361240397474333</v>
       </c>
       <c r="N13">
-        <v>2.42353325184493</v>
+        <v>1.156426751767526</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.6720989839261051</v>
+        <v>1.62764921731997</v>
       </c>
       <c r="C14">
-        <v>0.1835557444244102</v>
+        <v>0.416102028946284</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.2586544914415256</v>
+        <v>0.3274364489592685</v>
       </c>
       <c r="F14">
-        <v>3.032330917150205</v>
+        <v>2.899007033468195</v>
       </c>
       <c r="G14">
-        <v>0.002508351401265796</v>
+        <v>0.0008012111496837561</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.192386787686942</v>
+        <v>0.8244241435053112</v>
       </c>
       <c r="J14">
-        <v>0.1073049010000204</v>
+        <v>0.0486527701056545</v>
       </c>
       <c r="K14">
-        <v>0.8398682706776412</v>
+        <v>1.999510508500521</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.5006941542938108</v>
+        <v>0.9190738339924422</v>
       </c>
       <c r="N14">
-        <v>2.426488554940093</v>
+        <v>1.163148301941561</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.6673465401186718</v>
+        <v>1.608830778370759</v>
       </c>
       <c r="C15">
-        <v>0.1824074481401965</v>
+        <v>0.4112384311296182</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.2579169233699403</v>
+        <v>0.3238797460103982</v>
       </c>
       <c r="F15">
-        <v>3.02801026587963</v>
+        <v>2.874053454563665</v>
       </c>
       <c r="G15">
-        <v>0.002508741167606731</v>
+        <v>0.0008019206944040927</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.192126907202407</v>
+        <v>0.8207636940658176</v>
       </c>
       <c r="J15">
-        <v>0.1073791406716396</v>
+        <v>0.04880061529135027</v>
       </c>
       <c r="K15">
-        <v>0.8341096623851172</v>
+        <v>1.976309558207561</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.4982807528220334</v>
+        <v>0.908657244675112</v>
       </c>
       <c r="N15">
-        <v>2.428313163512001</v>
+        <v>1.167314018490373</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.6401950913150642</v>
+        <v>1.501656894402061</v>
       </c>
       <c r="C16">
-        <v>0.1758555110172324</v>
+        <v>0.3836258444184182</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.2537242235415036</v>
+        <v>0.3036244328408273</v>
       </c>
       <c r="F16">
-        <v>3.003694373655492</v>
+        <v>2.732932328626021</v>
       </c>
       <c r="G16">
-        <v>0.002511008904902912</v>
+        <v>0.0008060078184734179</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.190798654139442</v>
+        <v>0.8004220468678014</v>
       </c>
       <c r="J16">
-        <v>0.1078142889367317</v>
+        <v>0.04967749232666741</v>
       </c>
       <c r="K16">
-        <v>0.8012201051492696</v>
+        <v>1.844275725885467</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.4845210883304247</v>
+        <v>0.8493597808654272</v>
       </c>
       <c r="N16">
-        <v>2.438989794633791</v>
+        <v>1.191910473303125</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.6236125466846829</v>
+        <v>1.436466429363549</v>
       </c>
       <c r="C17">
-        <v>0.1718614356771582</v>
+        <v>0.3669028386968591</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.2511825146559445</v>
+        <v>0.2913050921232809</v>
       </c>
       <c r="F17">
-        <v>2.989173301735917</v>
+        <v>2.647951677389443</v>
       </c>
       <c r="G17">
-        <v>0.002512430625944417</v>
+        <v>0.0008085348782364336</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.190127352404097</v>
+        <v>0.7884851155759094</v>
       </c>
       <c r="J17">
-        <v>0.1080898982599994</v>
+        <v>0.05024100200422055</v>
       </c>
       <c r="K17">
-        <v>0.7811421244305166</v>
+        <v>1.764047483014878</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.4761429634308101</v>
+        <v>0.8133144651896203</v>
       </c>
       <c r="N17">
-        <v>2.44573615984816</v>
+        <v>1.207624965144234</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.6141019086948347</v>
+        <v>1.399160880630916</v>
       </c>
       <c r="C18">
-        <v>0.1695734202177164</v>
+        <v>0.3573582299531779</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.2497317676854749</v>
+        <v>0.2842560600154869</v>
       </c>
       <c r="F18">
-        <v>2.980966569245425</v>
+        <v>2.59962659850045</v>
       </c>
       <c r="G18">
-        <v>0.00251325961228534</v>
+        <v>0.0008099960119744269</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.189793932108913</v>
+        <v>0.7818091173985593</v>
       </c>
       <c r="J18">
-        <v>0.1082516019597808</v>
+        <v>0.05057418444060779</v>
       </c>
       <c r="K18">
-        <v>0.7696300401599672</v>
+        <v>1.718165512584363</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.4713472413089974</v>
+        <v>0.7926958798292389</v>
       </c>
       <c r="N18">
-        <v>2.449688664295486</v>
+        <v>1.216885305543116</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.6108864434238228</v>
+        <v>1.386561215774947</v>
       </c>
       <c r="C19">
-        <v>0.1688003263919029</v>
+        <v>0.3541387988829854</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.2492424905864823</v>
+        <v>0.2818754609661411</v>
       </c>
       <c r="F19">
-        <v>2.978212874260194</v>
+        <v>2.583356722869453</v>
       </c>
       <c r="G19">
-        <v>0.002513542227890755</v>
+        <v>0.0008104920732683132</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.189690086892597</v>
+        <v>0.7795804803319655</v>
       </c>
       <c r="J19">
-        <v>0.108306898122672</v>
+        <v>0.05068852120119338</v>
       </c>
       <c r="K19">
-        <v>0.7657384673790659</v>
+        <v>1.702674050777006</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.469727469601672</v>
+        <v>0.7857335632961977</v>
       </c>
       <c r="N19">
-        <v>2.451039303190186</v>
+        <v>1.220058053359175</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.6253749717302242</v>
+        <v>1.443386053497449</v>
       </c>
       <c r="C20">
-        <v>0.1722856514867033</v>
+        <v>0.3686752492875485</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.2514519274582909</v>
+        <v>0.2926126517410665</v>
       </c>
       <c r="F20">
-        <v>2.990704043549215</v>
+        <v>2.65694002596868</v>
       </c>
       <c r="G20">
-        <v>0.002512278117562201</v>
+        <v>0.0008082650865061477</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.19019335866939</v>
+        <v>0.7897359717789101</v>
       </c>
       <c r="J20">
-        <v>0.1080602299613354</v>
+        <v>0.05018006981045176</v>
       </c>
       <c r="K20">
-        <v>0.7832757084256627</v>
+        <v>1.772560240629929</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.4770324329774951</v>
+        <v>0.8171396002465627</v>
       </c>
       <c r="N20">
-        <v>2.445010526351858</v>
+        <v>1.205929000787862</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.6743793756496359</v>
+        <v>1.636685519093447</v>
       </c>
       <c r="C21">
-        <v>0.1841068888615496</v>
+        <v>0.4184390430293377</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.259008776418419</v>
+        <v>0.3291443194151498</v>
       </c>
       <c r="F21">
-        <v>3.034410644804808</v>
+        <v>2.91100737307201</v>
       </c>
       <c r="G21">
-        <v>0.00250816510094823</v>
+        <v>0.0008008712609038238</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.192514257685282</v>
+        <v>0.8261910158259909</v>
       </c>
       <c r="J21">
-        <v>0.1072694729077046</v>
+        <v>0.04858241124560436</v>
       </c>
       <c r="K21">
-        <v>0.8426316391769149</v>
+        <v>2.010653049098011</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.5018526938483916</v>
+        <v>0.9240761839661573</v>
       </c>
       <c r="N21">
-        <v>2.425617509389781</v>
+        <v>1.161163848039848</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.7066485769352937</v>
+        <v>1.765031259006264</v>
       </c>
       <c r="C22">
-        <v>0.1919160789837804</v>
+        <v>0.4517431963862748</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.2640468577629846</v>
+        <v>0.3534010141328991</v>
       </c>
       <c r="F22">
-        <v>3.064272440401425</v>
+        <v>3.082682069961635</v>
       </c>
       <c r="G22">
-        <v>0.002505576602344369</v>
+        <v>0.0007960986051409228</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.19450151810161</v>
+        <v>0.8519130414224776</v>
       </c>
       <c r="J22">
-        <v>0.1067810324432816</v>
+        <v>0.04762630924884625</v>
       </c>
       <c r="K22">
-        <v>0.8817475609874066</v>
+        <v>2.169041314076338</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.5182801958927143</v>
+        <v>0.9951583082334849</v>
       </c>
       <c r="N22">
-        <v>2.413587362196424</v>
+        <v>1.134059184612084</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.6894037662612504</v>
+        <v>1.696330137003059</v>
       </c>
       <c r="C23">
-        <v>0.1877405051631342</v>
+        <v>0.4338904606253493</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.2613488717560628</v>
+        <v>0.3404171153614683</v>
       </c>
       <c r="F23">
-        <v>3.048215854169229</v>
+        <v>2.990505381987759</v>
       </c>
       <c r="G23">
-        <v>0.002506949048063447</v>
+        <v>0.0007986408320868849</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.193397778937829</v>
+        <v>0.8380005857992074</v>
       </c>
       <c r="J23">
-        <v>0.107039124793916</v>
+        <v>0.0481281633705315</v>
       </c>
       <c r="K23">
-        <v>0.8608410332613232</v>
+        <v>2.084229619250124</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.5094936845521261</v>
+        <v>0.9571020501011205</v>
       </c>
       <c r="N23">
-        <v>2.419949044757956</v>
+        <v>1.148319447436606</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.6245781080722566</v>
+        <v>1.440257154995066</v>
       </c>
       <c r="C24">
-        <v>0.1720938378878714</v>
+        <v>0.3678737267511565</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.2513300931742677</v>
+        <v>0.2920214002074388</v>
       </c>
       <c r="F24">
-        <v>2.99001155403127</v>
+        <v>2.652874745765132</v>
       </c>
       <c r="G24">
-        <v>0.00251234703038974</v>
+        <v>0.0008083870333886869</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.19016335364271</v>
+        <v>0.7891698803618397</v>
       </c>
       <c r="J24">
-        <v>0.1080736328684253</v>
+        <v>0.05020758863641284</v>
       </c>
       <c r="K24">
-        <v>0.7823110185043163</v>
+        <v>1.76871087283385</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.4766302384649919</v>
+        <v>0.8154099336000797</v>
       </c>
       <c r="N24">
-        <v>2.445338354964456</v>
+        <v>1.20669504463396</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.5556930632583317</v>
+        <v>1.171165072003134</v>
       </c>
       <c r="C25">
-        <v>0.1555703080309172</v>
+        <v>0.2994375062325503</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.2409506533392047</v>
+        <v>0.2411971306174081</v>
       </c>
       <c r="F25">
-        <v>2.932786299594667</v>
+        <v>2.309519377581708</v>
       </c>
       <c r="G25">
-        <v>0.002518600109588598</v>
+        <v>0.0008191958422355049</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.188688399487575</v>
+        <v>0.7436579293084336</v>
       </c>
       <c r="J25">
-        <v>0.1093110928707617</v>
+        <v>0.05279387238990019</v>
       </c>
       <c r="K25">
-        <v>0.6989884673415361</v>
+        <v>1.438229466095606</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.4420668625568638</v>
+        <v>0.6668348054980697</v>
       </c>
       <c r="N25">
-        <v>2.475483316348274</v>
+        <v>1.278059480726981</v>
       </c>
       <c r="O25">
         <v>0</v>
